--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -606,11 +606,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -626,6 +623,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,9 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU19" sqref="AU19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +997,7 @@
     <col min="45" max="45" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="43" customWidth="1"/>
+    <col min="48" max="48" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
@@ -1005,38 +1006,38 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:48" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:48" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1331,264 +1332,264 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
     </row>
     <row r="7" spans="1:48" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AB7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AE7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AF7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AI7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AM7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AO7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AP7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AR7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AS7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AT7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AU7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3" t="s">
+      <c r="B8" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AT8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="AU8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="AV8" s="11" t="s">
+      <c r="AT8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="AV8" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1603,19 +1604,19 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D86">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F86">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K86">
       <formula1>Hidden_310</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AM8:AM201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AM8:AM86">
       <formula1>Hidden_438</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO86">
       <formula1>Hidden_540</formula1>
     </dataValidation>
   </dataValidations>
@@ -1628,27 +1629,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1661,7 +1664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1694,16 +1699,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1716,32 +1721,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1754,17 +1764,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1777,17 +1789,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1800,17 +1814,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1823,17 +1839,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1846,7 +1864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1886,25 +1906,25 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D34">
       <formula1>Hidden_1_Tabla_4925783</formula1>
     </dataValidation>
   </dataValidations>
@@ -1916,22 +1936,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1944,7 +1969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2012,37 +2039,37 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F44">
       <formula1>Hidden_1_Tabla_4925805</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,29 @@
     <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
     <sheet name="Hidden_4" sheetId="5" r:id="rId5"/>
     <sheet name="Hidden_5" sheetId="6" r:id="rId6"/>
-    <sheet name="Tabla_492578" sheetId="7" r:id="rId7"/>
-    <sheet name="Hidden_1_Tabla_492578" sheetId="8" r:id="rId8"/>
-    <sheet name="Tabla_492580" sheetId="9" r:id="rId9"/>
-    <sheet name="Hidden_1_Tabla_492580" sheetId="10" r:id="rId10"/>
-    <sheet name="Tabla_492622" sheetId="11" r:id="rId11"/>
+    <sheet name="Hidden_6" sheetId="7" r:id="rId7"/>
+    <sheet name="Tabla_492578" sheetId="8" r:id="rId8"/>
+    <sheet name="Hidden_1_Tabla_492578" sheetId="9" r:id="rId9"/>
+    <sheet name="Tabla_492580" sheetId="10" r:id="rId10"/>
+    <sheet name="Hidden_1_Tabla_492580" sheetId="11" r:id="rId11"/>
+    <sheet name="Tabla_492622" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Hidden_1_Tabla_4925783">Hidden_1_Tabla_492578!$A$1:$A$3</definedName>
     <definedName name="Hidden_1_Tabla_4925805">Hidden_1_Tabla_492580!$A$1:$A$4</definedName>
-    <definedName name="Hidden_13">Hidden_1!$A$1:$A$5</definedName>
-    <definedName name="Hidden_25">Hidden_2!$A$1:$A$2</definedName>
-    <definedName name="Hidden_310">Hidden_3!$A$1:$A$2</definedName>
-    <definedName name="Hidden_438">Hidden_4!$A$1:$A$2</definedName>
+    <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
+    <definedName name="Hidden_24">Hidden_2!$A$1:$A$5</definedName>
+    <definedName name="Hidden_37">Hidden_3!$A$1:$A$2</definedName>
+    <definedName name="Hidden_412">Hidden_4!$A$1:$A$2</definedName>
     <definedName name="Hidden_540">Hidden_5!$A$1:$A$2</definedName>
+    <definedName name="Hidden_642">Hidden_6!$A$1:$A$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
   <si>
     <t>52260</t>
   </si>
@@ -52,7 +54,7 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>Subsidios, estímulos y apoyos_Programas sociales</t>
+    <t>Programas sociales</t>
   </si>
   <si>
     <t>a69_f15_a</t>
@@ -100,12 +102,18 @@
     <t>492614</t>
   </si>
   <si>
+    <t>561996</t>
+  </si>
+  <si>
     <t>492621</t>
   </si>
   <si>
     <t>492584</t>
   </si>
   <si>
+    <t>561997</t>
+  </si>
+  <si>
     <t>492606</t>
   </si>
   <si>
@@ -223,6 +231,9 @@
     <t>492611</t>
   </si>
   <si>
+    <t>561998</t>
+  </si>
+  <si>
     <t>492618</t>
   </si>
   <si>
@@ -247,10 +258,16 @@
     <t>Fecha de término del periodo que se informa</t>
   </si>
   <si>
+    <t>Ámbito(catálogo): Local/Federal</t>
+  </si>
+  <si>
     <t>Tipo de programa (catálogo)</t>
   </si>
   <si>
     <t>Denominación del programa</t>
+  </si>
+  <si>
+    <t>Denominación del subprograma, vertiente o modalidad a la que pertenece el beneficiario, en su caso</t>
   </si>
   <si>
     <t>El programa es desarrollado por más de un área (catálogo)</t>
@@ -373,6 +390,9 @@
     <t>Hipervínculo al padrón de beneficiarios o participantes</t>
   </si>
   <si>
+    <t>Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar</t>
+  </si>
+  <si>
     <t>Área(s) responsable(s) que genera(n), posee(n), publica(n) y actualizan la información</t>
   </si>
   <si>
@@ -385,6 +405,12 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
     <t>Programas de transferencia</t>
   </si>
   <si>
@@ -526,7 +552,7 @@
     <t>Secretaria Administrativa (UPP)</t>
   </si>
   <si>
-    <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca; no tiene bajo su responsabilidad el otorgar este tipo de Programas</t>
+    <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca; no tiene bajo su responsabilidad el otorgar este tipo de Programas.</t>
   </si>
 </sst>
 </file>
@@ -606,10 +632,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -617,15 +652,10 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -637,7 +667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,39 +695,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,175 +806,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="AV2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,93 +958,96 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="43" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="44" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="46" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="43" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="44" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="46" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="114" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:48" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1053,49 +1061,49 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
       <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" t="s">
-        <v>14</v>
-      </c>
       <c r="S4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T4" t="s">
         <v>14</v>
@@ -1107,17 +1115,17 @@
         <v>14</v>
       </c>
       <c r="W4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="s">
         <v>11</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>10</v>
-      </c>
       <c r="AA4" t="s">
         <v>10</v>
       </c>
@@ -1134,28 +1142,28 @@
         <v>10</v>
       </c>
       <c r="AF4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>10</v>
-      </c>
       <c r="AI4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="s">
         <v>11</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM4" t="s">
         <v>12</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>9</v>
       </c>
       <c r="AN4" t="s">
         <v>10</v>
@@ -1164,28 +1172,37 @@
         <v>9</v>
       </c>
       <c r="AP4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="s">
         <v>11</v>
       </c>
       <c r="AS4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW4" t="s">
         <v>8</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AX4" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AY4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1330,272 +1347,296 @@
       <c r="AV5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="AW5" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-    </row>
-    <row r="7" spans="1:48" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="AX5" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="AY5" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+    </row>
+    <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="U7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="V7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="W7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="X7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="Y7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="Z7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AA7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AB7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AC7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AD7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AE7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AF7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AG7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AH7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AI7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AK7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AL7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AM7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AN7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AO7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AP7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AR7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AV7" s="1" t="s">
+      <c r="AS7" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2020</v>
+      <c r="AT7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="4">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="AV8" s="6" t="s">
-        <v>161</v>
+        <v>44286</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW8" s="6">
+        <v>44298</v>
+      </c>
+      <c r="AX8" s="6">
+        <v>44298</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:AV6"/>
+    <mergeCell ref="A6:AY6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1603,374 +1644,37 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D86">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F86">
-      <formula1>Hidden_25</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
+      <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K8:K86">
-      <formula1>Hidden_310</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
+      <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AM8:AM86">
-      <formula1>Hidden_438</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8">
+      <formula1>Hidden_412</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO86">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8">
       <formula1>Hidden_540</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8">
+      <formula1>Hidden_642</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D34">
-      <formula1>Hidden_1_Tabla_4925783</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD22"/>
+      <selection activeCell="A4" sqref="A4:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,65 +1718,408 @@
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>149</v>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F123">
       <formula1>Hidden_1_Tabla_4925805</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D119">
+      <formula1>Hidden_1_Tabla_4925783</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
     <definedName name="Hidden_540">Hidden_5!$A$1:$A$2</definedName>
     <definedName name="Hidden_642">Hidden_6!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="189">
   <si>
     <t>52260</t>
   </si>
@@ -549,17 +549,74 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
-    <t>Secretaria Administrativa (UPP)</t>
-  </si>
-  <si>
-    <t>De conformidad con las atribuciones conferidas en el Artículo 4 del Decreto publicado el 4 de febrero de 2008, que modifica diversas disposiciones del Diverso que abrogó al que creó a la Universidad Politécnica de Pachuca; no tiene bajo su responsabilidad el otorgar este tipo de Programas.</t>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Programa de Reglas de Operación para las Becas Institucionales de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>http://periodico.hidalgo.gob.mx/?tribe_events=periodico-oficial-alcance-24-del-26-de-febrero-de-2021</t>
+  </si>
+  <si>
+    <t>Becas Institucionales</t>
+  </si>
+  <si>
+    <t>Universidad Politécncia de Pachuca</t>
+  </si>
+  <si>
+    <t>Área de Becas</t>
+  </si>
+  <si>
+    <t>UPP Becas</t>
+  </si>
+  <si>
+    <t>Reglas de Operación 2021</t>
+  </si>
+  <si>
+    <t>115.4 por persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reglas de Operación </t>
+  </si>
+  <si>
+    <t>abril-junio</t>
+  </si>
+  <si>
+    <t>Evaluación Programática Presupuestal</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación en evaluación trimestral</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/transparencia/htm/a69_f06UPPachuca.htm</t>
+  </si>
+  <si>
+    <t>Incrementar la cobertura y la calidad de la oferta educativa mejorando la formación integral.</t>
+  </si>
+  <si>
+    <t>Otorgamiento de becas a estudiantes de  Educación Superior</t>
+  </si>
+  <si>
+    <t>metas del año</t>
+  </si>
+  <si>
+    <t>Becas de Representación Institucional</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/01-edosfin/2021/a_junio_2021/estadoanaliticopresupuestoegresos.pdf</t>
+  </si>
+  <si>
+    <t>Solicitud de Secretaría Académica</t>
+  </si>
+  <si>
+    <t>Las tablas adyacentes, criterios e hipervínculos que se observan vacíos, no los generó esta Institución para este trimestre a reportar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -579,6 +636,21 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -629,10 +701,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -655,7 +728,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -668,7 +746,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -949,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AV2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
@@ -960,17 +1039,17 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="98.85546875" customWidth="1"/>
+    <col min="12" max="12" width="101.85546875" customWidth="1"/>
     <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -980,8 +1059,8 @@
     <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="111.28515625" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" customWidth="1"/>
     <col min="28" max="28" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="42.140625" bestFit="1" customWidth="1"/>
@@ -989,23 +1068,23 @@
     <col min="32" max="32" width="24" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="43" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="44" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41" customWidth="1"/>
+    <col min="36" max="36" width="50.5703125" customWidth="1"/>
+    <col min="37" max="37" width="75.7109375" customWidth="1"/>
     <col min="38" max="38" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="46" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="96.28515625" customWidth="1"/>
     <col min="45" max="45" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="114" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="62.85546875" customWidth="1"/>
+    <col min="51" max="51" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
@@ -1014,38 +1093,38 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1358,59 +1437,59 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
     </row>
     <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1572,66 +1651,130 @@
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
+        <v>44377</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="4">
+        <v>44331</v>
+      </c>
+      <c r="O8" s="4">
+        <v>44331</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>97</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="U8" s="3">
+        <v>11194</v>
+      </c>
+      <c r="V8" s="3">
+        <v>11194</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3">
+        <v>11194</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
       <c r="AV8" s="5" t="s">
         <v>168</v>
       </c>
       <c r="AW8" s="6">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AX8" s="6">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="AY8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1664,8 +1807,14 @@
       <formula1>Hidden_642</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AK8" r:id="rId1"/>
+    <hyperlink ref="AR8" r:id="rId2"/>
+    <hyperlink ref="L8" r:id="rId3"/>
+    <hyperlink ref="Z8" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1674,7 +1823,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD81"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1968,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,17 +2175,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD85"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2084,6 +2233,23 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2093,6 +2259,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
     <definedName name="Hidden_540">Hidden_5!$A$1:$A$2</definedName>
     <definedName name="Hidden_642">Hidden_6!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
   <si>
     <t>52260</t>
   </si>
@@ -549,74 +549,17 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
+    <t>Debido a contingencia por COVID-19, no se han tenido clases presenciales por el Programa Mi Escuela en Casa. Por las características de las becas Institucionales, se otorgarán cuando las y los estudiantes regresen a la nueva normalidad.</t>
+  </si>
+  <si>
     <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Programa de Reglas de Operación para las Becas Institucionales de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>http://periodico.hidalgo.gob.mx/?tribe_events=periodico-oficial-alcance-24-del-26-de-febrero-de-2021</t>
-  </si>
-  <si>
-    <t>Becas Institucionales</t>
-  </si>
-  <si>
-    <t>Universidad Politécncia de Pachuca</t>
-  </si>
-  <si>
-    <t>Área de Becas</t>
-  </si>
-  <si>
-    <t>UPP Becas</t>
-  </si>
-  <si>
-    <t>Reglas de Operación 2021</t>
-  </si>
-  <si>
-    <t>115.4 por persona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reglas de Operación </t>
-  </si>
-  <si>
-    <t>abril-junio</t>
-  </si>
-  <si>
-    <t>Evaluación Programática Presupuestal</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación en evaluación trimestral</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/transparencia/htm/a69_f06UPPachuca.htm</t>
-  </si>
-  <si>
-    <t>Incrementar la cobertura y la calidad de la oferta educativa mejorando la formación integral.</t>
-  </si>
-  <si>
-    <t>Otorgamiento de becas a estudiantes de  Educación Superior</t>
-  </si>
-  <si>
-    <t>metas del año</t>
-  </si>
-  <si>
-    <t>Becas de Representación Institucional</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/01-edosfin/2021/a_junio_2021/estadoanaliticopresupuestoegresos.pdf</t>
-  </si>
-  <si>
-    <t>Solicitud de Secretaría Académica</t>
-  </si>
-  <si>
-    <t>Las tablas adyacentes, criterios e hipervínculos que se observan vacíos, no los generó esta Institución para este trimestre a reportar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -638,22 +581,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,14 +604,8 @@
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -700,12 +628,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -720,18 +658,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,15 +668,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1028,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW8" sqref="AW8"/>
+    <sheetView tabSelected="1" topLeftCell="AV2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,17 +961,17 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="98.85546875" customWidth="1"/>
-    <col min="12" max="12" width="101.85546875" customWidth="1"/>
+    <col min="11" max="11" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -1059,8 +981,8 @@
     <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="111.28515625" customWidth="1"/>
-    <col min="27" max="27" width="27.7109375" customWidth="1"/>
+    <col min="26" max="26" width="32" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="42.140625" bestFit="1" customWidth="1"/>
@@ -1068,23 +990,23 @@
     <col min="32" max="32" width="24" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="43" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="41" customWidth="1"/>
-    <col min="36" max="36" width="50.5703125" customWidth="1"/>
-    <col min="37" max="37" width="75.7109375" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="44" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="46" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="96.28515625" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="114" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="26.7109375" customWidth="1"/>
+    <col min="51" max="51" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
@@ -1093,38 +1015,38 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1437,59 +1359,59 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
     </row>
     <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1646,135 +1568,71 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="4">
-        <v>44331</v>
-      </c>
-      <c r="O8" s="4">
-        <v>44331</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3">
-        <v>97</v>
-      </c>
+        <v>44469</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3">
-        <v>11400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>11194</v>
-      </c>
-      <c r="V8" s="3">
-        <v>11194</v>
-      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3">
-        <v>11194</v>
-      </c>
+      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR8" s="8" t="s">
-        <v>170</v>
-      </c>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="5" t="s">
+      <c r="AV8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="AY8" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="AW8" s="6">
-        <v>44386</v>
-      </c>
-      <c r="AX8" s="6">
-        <v>44386</v>
-      </c>
-      <c r="AY8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1807,14 +1665,8 @@
       <formula1>Hidden_642</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="AK8" r:id="rId1"/>
-    <hyperlink ref="AR8" r:id="rId2"/>
-    <hyperlink ref="L8" r:id="rId3"/>
-    <hyperlink ref="Z8" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1822,9 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1922,7 +1772,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F123">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201">
       <formula1>Hidden_1_Tabla_4925805</formula1>
     </dataValidation>
   </dataValidations>
@@ -1967,9 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2175,17 +2023,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2235,31 +2081,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D119">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201">
       <formula1>Hidden_1_Tabla_4925783</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -572,19 +572,18 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -605,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -625,17 +624,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,14 +648,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,7 +992,7 @@
     <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="65.5703125" customWidth="1"/>
+    <col min="51" max="51" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
@@ -1015,38 +1001,38 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1359,59 +1345,59 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
     </row>
     <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1568,15 +1554,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1622,14 +1608,14 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="6" t="s">
+      <c r="AV8" s="9" t="s">
         <v>169</v>
       </c>
       <c r="AW8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AX8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="AY8" s="5" t="s">
         <v>168</v>
@@ -1674,7 +1660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD128"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1772,7 +1760,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F76">
       <formula1>Hidden_1_Tabla_4925805</formula1>
     </dataValidation>
   </dataValidations>
@@ -1817,7 +1805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2025,7 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2083,7 +2075,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D110">
       <formula1>Hidden_1_Tabla_4925783</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -549,17 +544,17 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
-    <t>Debido a contingencia por COVID-19, no se han tenido clases presenciales por el Programa Mi Escuela en Casa. Por las características de las becas Institucionales, se otorgarán cuando las y los estudiantes regresen a la nueva normalidad.</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación (UPP)</t>
+    <t xml:space="preserve"> Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Debido a contingencia por COVID-19, el regreso a clases ha sido escalonado, por las características de las becas Institucionales, se otorgarán cuando todos las y los estudiantes regresen a clases presenciales, existiendo en la institución 2 tipos de becas: Alimenticia y De Representación Institucional de acuerdo a las reglas de operación publicadas el el POEH el día 28-feb-22.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -572,18 +567,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -631,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -645,15 +635,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -936,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AV8" sqref="AV8"/>
+    <sheetView tabSelected="1" topLeftCell="AW2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +987,7 @@
     <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="59.5703125" customWidth="1"/>
+    <col min="51" max="51" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
@@ -1001,38 +996,38 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:51" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1345,59 +1340,59 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
     </row>
     <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1554,15 +1549,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1608,17 +1603,17 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="9" t="s">
+      <c r="AV8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="AY8" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="AW8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="AX8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1660,9 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD128"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1760,7 +1753,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F76">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201">
       <formula1>Hidden_1_Tabla_4925805</formula1>
     </dataValidation>
   </dataValidations>
@@ -1805,9 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2015,9 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD94"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2075,7 +2064,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D110">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201">
       <formula1>Hidden_1_Tabla_4925783</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -544,17 +544,17 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Debido a contingencia por COVID-19, el regreso a clases ha sido escalonado, por las características de las becas Institucionales, se otorgarán cuando todos las y los estudiantes regresen a clases presenciales, existiendo en la institución 2 tipos de becas: Alimenticia y De Representación Institucional de acuerdo a las reglas de operación publicadas el el POEH el día 28-feb-22.</t>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Debido a contingencia por COVID-19, el regreso a clases ha sido escalonado, por las características de las becas Institucionales, se otorgarán cuando todos las y los estudiantes regresen a clases presenciales.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -575,6 +575,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -594,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -617,11 +624,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -629,25 +645,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,39 +696,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +763,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,142 +807,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -931,13 +974,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY11" sqref="AY11"/>
+    <sheetView tabSelected="1" topLeftCell="AW2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="BC7" sqref="BC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -987,7 +1030,7 @@
     <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="62.28515625" customWidth="1"/>
+    <col min="51" max="51" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
@@ -996,38 +1039,38 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:51" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:51" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1340,59 +1383,59 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
     </row>
     <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1549,70 +1592,70 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:51" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2022</v>
       </c>
-      <c r="B8" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AW8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="AX8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="AY8" s="10" t="s">
+      <c r="AW8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>44753</v>
+      </c>
+      <c r="AY8" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1627,27 +1670,26 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D165">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E165">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H165">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8:M165">
       <formula1>Hidden_412</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO165">
       <formula1>Hidden_540</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8:AQ165">
       <formula1>Hidden_642</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="185">
   <si>
     <t>52260</t>
   </si>
@@ -359,10 +359,6 @@
     <t>Seguimiento a las recomendaciones (en su caso)</t>
   </si>
   <si>
-    <t>Indicadores respecto de la ejecución del programa 
-Tabla_492580</t>
-  </si>
-  <si>
     <t>Formas de participación social</t>
   </si>
   <si>
@@ -544,17 +540,67 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Debido a contingencia por COVID-19, el regreso a clases ha sido escalonado, por las características de las becas Institucionales, se otorgarán cuando todos las y los estudiantes regresen a clases presenciales.</t>
+    <t>Becas Miguel Hidalgo</t>
+  </si>
+  <si>
+    <t>Becas Miguel Hidalgo de educación Superior</t>
+  </si>
+  <si>
+    <t>Mtra. Nelly Abigain Pacheco Rodriguez</t>
+  </si>
+  <si>
+    <t>Área de Becas</t>
+  </si>
+  <si>
+    <t>Reglas de Operación Becas Miguel Hidalgo</t>
+  </si>
+  <si>
+    <t>Estudiantes inactivos</t>
+  </si>
+  <si>
+    <t>Evitar la decersión escolar</t>
+  </si>
+  <si>
+    <t>Apoyo a estudiantes de Servicio Social e Internado de Pregrado de Educación Superior</t>
+  </si>
+  <si>
+    <t>Porcentaje de alumnos becados</t>
+  </si>
+  <si>
+    <t>alumnos becados/matrícula *100</t>
+  </si>
+  <si>
+    <t>alumnos</t>
+  </si>
+  <si>
+    <t>semestral</t>
+  </si>
+  <si>
+    <t>Carta Descriptiva del Programa Operativo Anual</t>
+  </si>
+  <si>
+    <t>Areá de Becas (UPP)</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/15/Acta%20BMH_Aceptados.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/15/RO%20PBMH%202022.pdf</t>
+  </si>
+  <si>
+    <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requieren para la otrogación de los programas sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicadores respecto de la ejecución del programa 
+Tabla_492580
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -578,6 +624,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -634,10 +688,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -657,6 +712,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -668,8 +738,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,9 +751,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -974,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="BC7" sqref="BC7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,14 +1059,14 @@
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" customWidth="1"/>
     <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="77.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="17" width="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -1023,9 +1094,9 @@
     <col min="41" max="41" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="81.42578125" customWidth="1"/>
     <col min="45" max="45" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="123.140625" customWidth="1"/>
     <col min="47" max="47" width="114" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -1039,38 +1110,38 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:51" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1383,61 +1454,61 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-    </row>
-    <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+    </row>
+    <row r="7" spans="1:51" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1462,7 +1533,7 @@
       <c r="H7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="17" t="s">
         <v>77</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1552,44 +1623,44 @@
       <c r="AL7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AM7" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AR7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AT7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:51" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,66 +1668,114 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+        <v>44834</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44593</v>
+      </c>
+      <c r="O8" s="3">
+        <v>44926</v>
+      </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>113</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4">
+        <v>1695000</v>
+      </c>
       <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4">
+        <v>1695000</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
+      <c r="AC8" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>15000</v>
+      </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
+      <c r="AG8" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
+      <c r="AM8" s="4">
+        <v>1</v>
+      </c>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
+      <c r="AO8" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
+      <c r="AQ8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR8" s="9" t="s">
+        <v>182</v>
+      </c>
       <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
+      <c r="AT8" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="AU8" s="4"/>
       <c r="AV8" s="5" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AW8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AX8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AY8" s="6" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1670,40 +1789,48 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D165">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E165">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H165">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8:M165">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8">
       <formula1>Hidden_412</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO165">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8">
       <formula1>Hidden_540</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8:AQ165">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8">
       <formula1>Hidden_642</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AT8" r:id="rId1"/>
+    <hyperlink ref="AR8" r:id="rId2"/>
+    <hyperlink ref="L8" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -1740,62 +1867,89 @@
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>143</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>145</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>147</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>148</v>
-      </c>
-      <c r="I2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>157</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4">
       <formula1>Hidden_1_Tabla_4925805</formula1>
     </dataValidation>
   </dataValidations>
@@ -1807,28 +1961,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1863,27 +2021,27 @@
     </row>
     <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>163</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1901,12 +2059,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1924,27 +2082,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1962,12 +2120,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1985,12 +2143,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2008,12 +2166,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2025,18 +2183,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2046,14 +2206,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -2075,38 +2237,55 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>131</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>138</v>
+      </c>
+      <c r="E4" s="4">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4">
       <formula1>Hidden_1_Tabla_4925783</formula1>
     </dataValidation>
   </dataValidations>
@@ -2124,17 +2303,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="201">
   <si>
     <t>52260</t>
   </si>
@@ -359,6 +359,10 @@
     <t>Seguimiento a las recomendaciones (en su caso)</t>
   </si>
   <si>
+    <t>Indicadores respecto de la ejecución del programa 
+Tabla_492580</t>
+  </si>
+  <si>
     <t>Formas de participación social</t>
   </si>
   <si>
@@ -540,30 +544,12 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
-    <t>Becas Miguel Hidalgo</t>
-  </si>
-  <si>
-    <t>Becas Miguel Hidalgo de educación Superior</t>
-  </si>
-  <si>
     <t>Mtra. Nelly Abigain Pacheco Rodriguez</t>
   </si>
   <si>
     <t>Área de Becas</t>
   </si>
   <si>
-    <t>Reglas de Operación Becas Miguel Hidalgo</t>
-  </si>
-  <si>
-    <t>Estudiantes inactivos</t>
-  </si>
-  <si>
-    <t>Evitar la decersión escolar</t>
-  </si>
-  <si>
-    <t>Apoyo a estudiantes de Servicio Social e Internado de Pregrado de Educación Superior</t>
-  </si>
-  <si>
     <t>Porcentaje de alumnos becados</t>
   </si>
   <si>
@@ -579,31 +565,168 @@
     <t>Carta Descriptiva del Programa Operativo Anual</t>
   </si>
   <si>
-    <t>Areá de Becas (UPP)</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/15/Acta%20BMH_Aceptados.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Julio-Septiembre/15/RO%20PBMH%202022.pdf</t>
-  </si>
-  <si>
-    <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requieren para la otrogación de los programas sociales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicadores respecto de la ejecución del programa 
-Tabla_492580
-</t>
+    <t xml:space="preserve"> Área de Becas (UPP)</t>
+  </si>
+  <si>
+    <t>Alumnos Becados</t>
+  </si>
+  <si>
+    <t>Becas Alimenticia</t>
+  </si>
+  <si>
+    <t>Becas de Representación Instucional</t>
+  </si>
+  <si>
+    <t>Presentar documentación apócrifa durante el proceso de selección; Cuando el beneficiario presente “Carta Renuncia” a la beca; Fallecimiento del beneficiario; Que se detecte que el beneficiario cuente con otra Beca Institucional; y Cuando el beneficiario cause baja escolar.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las quejas, dudas, aclaraciones, comentarios y denuncias de los estudiantes beneficiarios en general se atenderán de acuerdo a las disposiciones establecidas para ello, y se podrán recibir vía escrita, telefónica, por internet o directamente en las oficinas de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">la Dirección de Planeación de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Universidad Politécnica de Pachuca al teléfono </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">771 547 7510 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ext.2228, y correo electrónico: dirplaneacion@upp.edu.mx.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Informe trimestral </t>
+  </si>
+  <si>
+    <t>Auditoría Superior del Estado de Hidalgo</t>
+  </si>
+  <si>
+    <t>Otorgar un beneficio a los estudiantes que solicitaron la beca, otorgándoseles un apoyo alimenticio en la cafetería de la Universidad Politécnica de Pachuca, ya sea un desayuno o una comida diaria.</t>
+  </si>
+  <si>
+    <t>Con el fin de apoyar a los estudiantes para continuar con sus estudios</t>
+  </si>
+  <si>
+    <t>Benedicio a los estudiantes inscritos que representen a la institución en el ámbito competitivo cultural, deportivo y/o académico con el otorgamiento del pago de los gastos que genere el acudir a algún evento representativo.</t>
+  </si>
+  <si>
+    <t>Con el fin de apoyar a los estudiantes que representan a la UPP en eventos instituciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiantes inscritos/as, activos en el periodo de emisión de eventos de representación del Programa Institucional de Becas de Representación Institucional en un programa educativo con el objeto de brindar un apoyo económico total o parcial de los gastos derivados de su participación en eventos regionales, estatales, nacionales e internacionales </t>
+  </si>
+  <si>
+    <t>Estudiantes de nivel Licenciatura y Posgrado, que se encuentren realizando estudios en la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Reglas de Operación para el Programa de Becas Institucionales de la Universidad Politécnica de Pachuca, para el ejercicio Fiscal 2022</t>
+  </si>
+  <si>
+    <t>Cumplir con cada uno de los procesos que marque las convocatorias o instrumentos jurídicos aplicables en tiempo y forma; Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
+  </si>
+  <si>
+    <t>Cumplir,con cada uno de los procesos que marque las convocatorias o instrumentos jurídicos aplicables en tiempo y forma; Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/15a/Reglas%20de%20operaci%C3%B3n.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/15a/presupuesto-anual-de-egresos.pdf</t>
+  </si>
+  <si>
+    <t>1.- Solicitud de beca
+2.- Constancia de no adeudo
+3.- Formato socio-económico</t>
+  </si>
+  <si>
+    <t>1.- Solicitud de beca
+2.- Constancia de no adeudo</t>
+  </si>
+  <si>
+    <t>01/09/2022 al 31/12/2022</t>
+  </si>
+  <si>
+    <t>01/09/2022 al 31/12/2023</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/15a/becas%20ASEH_%20.pdf</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/mecasup/mc/guia/2021-guia_mecasup.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De acuerdo a la naturaleza del programa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no se requiere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> la información del Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado, Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, el Hipervínculo a los informes periódicos sobre la ejecución del programa, Hipervínculo al resultado de las evaluaciones realizadas a dichos informes y la Fecha de publicación  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programa, lo que no impide la ejecución de los programas sociales.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -622,11 +745,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -655,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -687,59 +814,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,6 +896,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1043,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,14 +1207,14 @@
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="77.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
     <col min="17" max="17" width="46" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -1076,32 +1224,32 @@
     <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="85.42578125" customWidth="1"/>
+    <col min="27" max="27" width="37.85546875" customWidth="1"/>
     <col min="28" max="28" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="105" customWidth="1"/>
     <col min="33" max="33" width="43" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="44" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="62" customWidth="1"/>
     <col min="38" max="38" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="46" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="81.42578125" customWidth="1"/>
+    <col min="44" max="44" width="68.5703125" customWidth="1"/>
     <col min="45" max="45" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="123.140625" customWidth="1"/>
+    <col min="46" max="46" width="81.7109375" customWidth="1"/>
     <col min="47" max="47" width="114" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="43.5703125" customWidth="1"/>
+    <col min="51" max="51" width="79.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
@@ -1110,38 +1258,38 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:51" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1454,61 +1602,61 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-    </row>
-    <row r="7" spans="1:51" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+    </row>
+    <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1533,7 +1681,7 @@
       <c r="H7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1623,159 +1771,326 @@
       <c r="AL7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AM7" s="17" t="s">
-        <v>184</v>
+      <c r="AM7" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>2022</v>
       </c>
-      <c r="B8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="B8" s="13">
+        <v>44835</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="N8" s="13">
+        <v>44805</v>
+      </c>
+      <c r="O8" s="13">
+        <v>44926</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="15">
+        <v>1</v>
+      </c>
+      <c r="R8" s="11">
+        <v>46</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11">
+        <v>42450</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>42450</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>1385.26</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>1385.26</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI8" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK8" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR8" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW8" s="13">
+        <v>44936</v>
+      </c>
+      <c r="AX8" s="13">
+        <v>44936</v>
+      </c>
+      <c r="AY8" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="13">
+        <v>44835</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="K9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="13">
+        <v>44805</v>
+      </c>
+      <c r="O9" s="13">
+        <v>44926</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="15">
+        <v>2</v>
+      </c>
+      <c r="R9" s="11">
+        <v>46</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11">
+        <v>19502</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>19502</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>321</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>469</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44593</v>
-      </c>
-      <c r="O8" s="3">
-        <v>44926</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4">
+      <c r="AK9" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="15">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR9" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS9" s="11">
         <v>1</v>
       </c>
-      <c r="R8" s="4">
-        <v>113</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4">
-        <v>1695000</v>
-      </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4">
-        <v>1695000</v>
-      </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4">
-        <v>15000</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>15000</v>
-      </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR8" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="AY8" s="6" t="s">
-        <v>183</v>
+      <c r="AT9" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW9" s="13">
+        <v>44936</v>
+      </c>
+      <c r="AX9" s="13">
+        <v>44936</v>
+      </c>
+      <c r="AY9" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1789,48 +2104,55 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D9">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E9">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H9">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8:M9">
       <formula1>Hidden_412</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO9">
       <formula1>Hidden_540</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8:AQ9">
       <formula1>Hidden_642</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AT8" r:id="rId1"/>
-    <hyperlink ref="AR8" r:id="rId2"/>
-    <hyperlink ref="L8" r:id="rId3"/>
+    <hyperlink ref="L8" r:id="rId1"/>
+    <hyperlink ref="L9" r:id="rId2"/>
+    <hyperlink ref="Z8" r:id="rId3"/>
+    <hyperlink ref="Z9" r:id="rId4"/>
+    <hyperlink ref="AK8" r:id="rId5"/>
+    <hyperlink ref="AK9" r:id="rId6"/>
+    <hyperlink ref="AR8" r:id="rId7"/>
+    <hyperlink ref="AR9" r:id="rId8"/>
+    <hyperlink ref="AT8" r:id="rId9"/>
+    <hyperlink ref="AT9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -1867,89 +2189,120 @@
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>175</v>
+      <c r="B4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="10">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>179</v>
+      <c r="C5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
       <formula1>Hidden_1_Tabla_4925805</formula1>
     </dataValidation>
   </dataValidations>
@@ -1962,29 +2315,29 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1994,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,30 +2374,48 @@
     </row>
     <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44089</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2059,12 +2430,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2082,27 +2453,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2120,12 +2491,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2143,12 +2514,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2166,12 +2537,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2184,19 +2555,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2206,17 +2577,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2237,55 +2608,72 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>173</v>
+      <c r="B4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E4" s="4">
-        <v>113</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="4">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D5">
       <formula1>Hidden_1_Tabla_4925783</formula1>
     </dataValidation>
   </dataValidations>
@@ -2297,23 +2685,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,22 @@
     <definedName name="Hidden_540">Hidden_5!$A$1:$A$2</definedName>
     <definedName name="Hidden_642">Hidden_6!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t>52260</t>
   </si>
@@ -544,12 +554,42 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
-    <t>Mtra. Nelly Abigain Pacheco Rodriguez</t>
+    <t>Becas Institucionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becas al Mérito Deportivo y cultural </t>
+  </si>
+  <si>
+    <t>Mtra. Nelly Abigain Pacheco Rodríguez</t>
   </si>
   <si>
     <t>Área de Becas</t>
   </si>
   <si>
+    <t>Reglas de Operación para el Programa de Becas Institucionales de la Universidad Politécnica de Pachuca, para el ejercicio Fiscal 2023</t>
+  </si>
+  <si>
+    <t>Las quejas, dudas, aclaraciones, comentarios y denuncias de los estudiantes beneficiarios en general se atenderán de acuerdo a las disposiciones establecidas para ello, y se podrán recibir vía escrita, telefónica, por internet o directamente en las oficinas de la Dirección de Planeación de la Universidad Politécnica de Pachuca al teléfono 771 547 7510  ext.2228, y correo electrónico: dirplaneacion@upp.edu.mx.</t>
+  </si>
+  <si>
+    <t>Cumplir con cada uno de los procesos que marque las convocatorias o instrumentos jurídicos aplicables en tiempo y forma; Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becas de Representación </t>
+  </si>
+  <si>
+    <t>Con el fin de apoyar a los estudiantes para continuar con sus estudios</t>
+  </si>
+  <si>
+    <t>Con el fin de apoyar a los estudiantes que representan a la UPP en eventos instituciones</t>
+  </si>
+  <si>
+    <t>Beneficio a los estudiantes inscritos que representen a la institución en el ámbito competitivo cultural, deportivo y/o académico con el otorgamiento del pago de los gastos que genere el acudir a algún evento representativo.</t>
+  </si>
+  <si>
+    <t>Alumnos Becados</t>
+  </si>
+  <si>
     <t>Porcentaje de alumnos becados</t>
   </si>
   <si>
@@ -565,168 +605,63 @@
     <t>Carta Descriptiva del Programa Operativo Anual</t>
   </si>
   <si>
-    <t xml:space="preserve"> Área de Becas (UPP)</t>
-  </si>
-  <si>
-    <t>Alumnos Becados</t>
-  </si>
-  <si>
-    <t>Becas Alimenticia</t>
-  </si>
-  <si>
-    <t>Becas de Representación Instucional</t>
-  </si>
-  <si>
-    <t>Presentar documentación apócrifa durante el proceso de selección; Cuando el beneficiario presente “Carta Renuncia” a la beca; Fallecimiento del beneficiario; Que se detecte que el beneficiario cuente con otra Beca Institucional; y Cuando el beneficiario cause baja escolar.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Las quejas, dudas, aclaraciones, comentarios y denuncias de los estudiantes beneficiarios en general se atenderán de acuerdo a las disposiciones establecidas para ello, y se podrán recibir vía escrita, telefónica, por internet o directamente en las oficinas de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">la Dirección de Planeación de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">la </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Universidad Politécnica de Pachuca al teléfono </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">771 547 7510 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ext.2228, y correo electrónico: dirplaneacion@upp.edu.mx.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Informe trimestral </t>
-  </si>
-  <si>
-    <t>Auditoría Superior del Estado de Hidalgo</t>
-  </si>
-  <si>
-    <t>Otorgar un beneficio a los estudiantes que solicitaron la beca, otorgándoseles un apoyo alimenticio en la cafetería de la Universidad Politécnica de Pachuca, ya sea un desayuno o una comida diaria.</t>
-  </si>
-  <si>
-    <t>Con el fin de apoyar a los estudiantes para continuar con sus estudios</t>
-  </si>
-  <si>
-    <t>Benedicio a los estudiantes inscritos que representen a la institución en el ámbito competitivo cultural, deportivo y/o académico con el otorgamiento del pago de los gastos que genere el acudir a algún evento representativo.</t>
-  </si>
-  <si>
-    <t>Con el fin de apoyar a los estudiantes que representan a la UPP en eventos instituciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudiantes inscritos/as, activos en el periodo de emisión de eventos de representación del Programa Institucional de Becas de Representación Institucional en un programa educativo con el objeto de brindar un apoyo económico total o parcial de los gastos derivados de su participación en eventos regionales, estatales, nacionales e internacionales </t>
-  </si>
-  <si>
-    <t>Estudiantes de nivel Licenciatura y Posgrado, que se encuentren realizando estudios en la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>Reglas de Operación para el Programa de Becas Institucionales de la Universidad Politécnica de Pachuca, para el ejercicio Fiscal 2022</t>
-  </si>
-  <si>
-    <t>Cumplir con cada uno de los procesos que marque las convocatorias o instrumentos jurídicos aplicables en tiempo y forma; Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
-  </si>
-  <si>
-    <t>Cumplir,con cada uno de los procesos que marque las convocatorias o instrumentos jurídicos aplicables en tiempo y forma; Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/15a/Reglas%20de%20operaci%C3%B3n.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/15a/presupuesto-anual-de-egresos.pdf</t>
-  </si>
-  <si>
-    <t>1.- Solicitud de beca
-2.- Constancia de no adeudo
-3.- Formato socio-económico</t>
-  </si>
-  <si>
-    <t>1.- Solicitud de beca
-2.- Constancia de no adeudo</t>
-  </si>
-  <si>
-    <t>01/09/2022 al 31/12/2022</t>
-  </si>
-  <si>
-    <t>01/09/2022 al 31/12/2023</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Octubre-Diciembre/15a/becas%20ASEH_%20.pdf</t>
-  </si>
-  <si>
     <t>https://www.upp.edu.mx/mecasup/mc/guia/2021-guia_mecasup.pdf</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">De acuerdo a la naturaleza del programa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>no se requiere</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> la información del Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado, Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, el Hipervínculo a los informes periódicos sobre la ejecución del programa, Hipervínculo al resultado de las evaluaciones realizadas a dichos informes y la Fecha de publicación  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programa, lo que no impide la ejecución de los programas sociales.</t>
-    </r>
+    <t>https://periodico.hidalgo.gob.mx/?tribe_events=Periodico-Oficial-Alcance-10-del-28-de-febrero-de-2023</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2022-presupuesto-anual-de-egresos-resumen.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Nacionalidad mexicana o acreditar su residencia legal en el país;
+b) No haber sido beneficiado con la Beca de Representación Institucional;
+c) Presentar constancia de no tener ningún tipo de adeudo con la Universidad;
+d) Tener como promedio mínimo de 8.0 y ser una o un estudiante regular; y
+e) Presentar constancia de haber obtenido reconocimiento estatal, regional, nacional o internacional, en los ámbitos académicos, culturales, deportivos o de participación comunitaria; firmado por el responsable o
+asesor de la actividad, donde se haga constar: 
+1.	Asistencia mínima del 80% a los entrenamientos, pláticas o reuniones de planeación y organización de las actividades; 
+2.	Asistencia del 100% a los juegos, presentaciones o actividades de participación comunitaria que se hayan programado; 
+3.	Haber mantenido una conducta intachable como miembro de los equipos representativos de la Universidad, dentro y fuera de la institución; y 
+4.	Haber usado adecuadamente el quipo y/o material institucional que se le haya asignado en calidad de préstamo para el desarrollo de las actividades académicas, deportivas, artístico-culturales o de participación comunitaria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La asignación de la Beca se otorga según la propuesta de estudiantes de la Secretaría Académica y/o Dirección de Vinculación por su destacada participación en los ámbitos académicos, culturales, deportivos o de participación comunitaria. </t>
+  </si>
+  <si>
+    <t>a)Nacionalidad mexicana o acreditar su residencia legal en el país;
+b) El Secretario Académico deberá presentar por escrito ante el Comité de Becas el listado de las y/o los estudiantes que participaran en eventos regionales, estatales, nacionales e internacionales en los ámbitos académicos, culturales, deportivos o de participación comunitaria, en representación de la Universidad;
+c) El Secretario Académico deberá presentar oficio con lista de estudiantes de no tener ningún tipo de adeudo
+con la Universidad, este requisito se exime para las y los estudiantes de nuevo ingreso; y
+d) Será determinada en función de la disponibilidad presupuestal del proyecto en la Universidad y con estricto cumplimiento de los requisitos fiscales y administrativos aplicables.</t>
+  </si>
+  <si>
+    <t>La asignación de la Beca se otorga según la selección de estudiantes de la Secretaría Académica.</t>
+  </si>
+  <si>
+    <t>Beneficio a estudiantes destacados en el ámbito culturay y deportivo</t>
+  </si>
+  <si>
+    <t>Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
+  </si>
+  <si>
+    <t>De acuerdo a la naturaleza del programa no se requiere la información del Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Periodo evaluado, Mecanismos de evaluación, Instancias Evaluadoras, Hipervínculo a resultados de informe de evaluación, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado,Hipervínculo al padrón de beneficiarios o participantes,  Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, el Hipervínculo a los informes periódicos sobre la ejecución del programa, Hipervínculo al resultado de las evaluaciones realizadas a dichos informes y la Fecha de publicación  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programa, lo que no impide la ejecución de los programas sociales.</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/15/2023_feb_28%20REGLAS%20DE%20OPERACI%C3%93N.pdf</t>
+  </si>
+  <si>
+    <t>Área de Becas (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -745,13 +680,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -806,15 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -827,24 +754,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -852,35 +800,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1193,63 +1134,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="85.42578125" customWidth="1"/>
-    <col min="27" max="27" width="37.85546875" customWidth="1"/>
+    <col min="26" max="26" width="63.140625" customWidth="1"/>
+    <col min="27" max="27" width="91.42578125" customWidth="1"/>
     <col min="28" max="28" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="105" customWidth="1"/>
+    <col min="32" max="32" width="66.28515625" customWidth="1"/>
     <col min="33" max="33" width="43" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="62" customWidth="1"/>
+    <col min="37" max="37" width="44" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="46" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="68.5703125" customWidth="1"/>
+    <col min="43" max="43" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="75" customWidth="1"/>
     <col min="45" max="45" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="81.7109375" customWidth="1"/>
+    <col min="46" max="46" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="114" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="79.28515625" customWidth="1"/>
+    <col min="51" max="51" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
@@ -1258,38 +1199,38 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:51" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:51" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1602,61 +1543,61 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-    </row>
-    <row r="7" spans="1:51" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+    </row>
+    <row r="7" spans="1:51" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1811,286 +1752,262 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="13">
-        <v>44835</v>
-      </c>
-      <c r="C8" s="13">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="11" t="s">
+    <row r="8" spans="1:51" s="8" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45016</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="E8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="7">
+        <v>45008</v>
+      </c>
+      <c r="O8" s="7">
+        <v>45026</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>45026</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>45026</v>
+      </c>
+      <c r="AY8" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44927</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45016</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="G9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N8" s="13">
-        <v>44805</v>
-      </c>
-      <c r="O8" s="13">
-        <v>44926</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="15">
-        <v>1</v>
-      </c>
-      <c r="R8" s="11">
-        <v>46</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11">
-        <v>42450</v>
-      </c>
-      <c r="U8" s="11">
+      <c r="N9" s="3">
+        <v>45014</v>
+      </c>
+      <c r="O9" s="7">
+        <v>45026</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="4">
+        <v>18</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
+        <v>2540</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
+        <v>2540</v>
+      </c>
+      <c r="W9" s="4">
         <v>0</v>
       </c>
-      <c r="V8" s="11">
-        <v>42450</v>
-      </c>
-      <c r="W8" s="11">
+      <c r="X9" s="4">
         <v>0</v>
       </c>
-      <c r="X8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB8" s="11" t="s">
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR9" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="AC8" s="11">
-        <v>1385.26</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>1385.26</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF8" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AS9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AI8" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK8" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR8" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW8" s="13">
-        <v>44936</v>
-      </c>
-      <c r="AX8" s="13">
-        <v>44936</v>
-      </c>
-      <c r="AY8" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="13">
-        <v>44835</v>
-      </c>
-      <c r="C9" s="13">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="13">
-        <v>44805</v>
-      </c>
-      <c r="O9" s="13">
-        <v>44926</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="15">
-        <v>2</v>
-      </c>
-      <c r="R9" s="11">
-        <v>46</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11">
-        <v>19502</v>
-      </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <v>19502</v>
-      </c>
-      <c r="W9" s="11">
-        <v>0</v>
-      </c>
-      <c r="X9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AW9" s="3">
+        <v>45026</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>45026</v>
+      </c>
+      <c r="AY9" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>321</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>469</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="15">
-        <v>2</v>
-      </c>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR9" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW9" s="13">
-        <v>44936</v>
-      </c>
-      <c r="AX9" s="13">
-        <v>44936</v>
-      </c>
-      <c r="AY9" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2103,23 +2020,24 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D200">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E200">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H200">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8:M9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8:M200">
       <formula1>Hidden_412</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO200">
       <formula1>Hidden_540</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8:AQ9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8:AQ200">
       <formula1>Hidden_642</formula1>
     </dataValidation>
   </dataValidations>
@@ -2128,15 +2046,10 @@
     <hyperlink ref="L9" r:id="rId2"/>
     <hyperlink ref="Z8" r:id="rId3"/>
     <hyperlink ref="Z9" r:id="rId4"/>
-    <hyperlink ref="AK8" r:id="rId5"/>
-    <hyperlink ref="AK9" r:id="rId6"/>
-    <hyperlink ref="AR8" r:id="rId7"/>
-    <hyperlink ref="AR9" r:id="rId8"/>
-    <hyperlink ref="AT8" r:id="rId9"/>
-    <hyperlink ref="AT9" r:id="rId10"/>
+    <hyperlink ref="AR8" r:id="rId5"/>
+    <hyperlink ref="AR9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2145,19 +2058,19 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="101.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2247,28 +2160,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" s="6">
+        <v>183</v>
+      </c>
+      <c r="H4" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2276,33 +2189,33 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="6">
+        <v>183</v>
+      </c>
+      <c r="H5" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201">
       <formula1>Hidden_1_Tabla_4925805</formula1>
     </dataValidation>
   </dataValidations>
@@ -2314,9 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2350,7 +2261,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,17 +2308,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="3">
         <v>44089</v>
       </c>
     </row>
@@ -2555,7 +2466,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,14 +2491,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2637,43 +2548,43 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>184</v>
+      <c r="B4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E4" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>186</v>
+      <c r="B5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E5" s="4">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201">
       <formula1>Hidden_1_Tabla_4925783</formula1>
     </dataValidation>
   </dataValidations>
@@ -2685,9 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
   <si>
     <t>52260</t>
   </si>
@@ -810,17 +810,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,33 +1199,33 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:51" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="20" t="s">
         <v>6</v>
       </c>
@@ -1543,59 +1543,59 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
     </row>
     <row r="7" spans="1:51" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1799,8 +1799,8 @@
         <v>45026</v>
       </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="9" t="s">
-        <v>192</v>
+      <c r="Q8" s="4">
+        <v>1</v>
       </c>
       <c r="R8" s="5">
         <v>1</v>
@@ -1860,7 +1860,7 @@
       <c r="AQ8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AR8" s="18" t="s">
+      <c r="AR8" s="15" t="s">
         <v>195</v>
       </c>
       <c r="AS8" s="5">
@@ -1877,7 +1877,7 @@
       <c r="AX8" s="7">
         <v>45026</v>
       </c>
-      <c r="AY8" s="19" t="s">
+      <c r="AY8" s="16" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1928,8 +1928,8 @@
         <v>45026</v>
       </c>
       <c r="P9" s="4"/>
-      <c r="Q9" s="9" t="s">
-        <v>178</v>
+      <c r="Q9" s="4">
+        <v>2</v>
       </c>
       <c r="R9" s="4">
         <v>18</v>
@@ -1989,7 +1989,7 @@
       <c r="AQ9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AR9" s="18" t="s">
+      <c r="AR9" s="15" t="s">
         <v>195</v>
       </c>
       <c r="AS9" s="4">
@@ -2006,7 +2006,7 @@
       <c r="AX9" s="7">
         <v>45026</v>
       </c>
-      <c r="AY9" s="19" t="s">
+      <c r="AY9" s="16" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2335,7 +2335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2358,7 +2360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2442,7 +2446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2491,7 +2497,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7799A-0687-4E2E-BB3E-AFF1C6940458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
-    <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
-    <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
-    <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
-    <sheet name="Hidden_4" sheetId="5" r:id="rId5"/>
-    <sheet name="Hidden_5" sheetId="6" r:id="rId6"/>
-    <sheet name="Hidden_6" sheetId="7" r:id="rId7"/>
-    <sheet name="Tabla_492578" sheetId="8" r:id="rId8"/>
-    <sheet name="Hidden_1_Tabla_492578" sheetId="9" r:id="rId9"/>
-    <sheet name="Tabla_492580" sheetId="10" r:id="rId10"/>
-    <sheet name="Hidden_1_Tabla_492580" sheetId="11" r:id="rId11"/>
-    <sheet name="Tabla_492622" sheetId="12" r:id="rId12"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId2"/>
+    <sheet name="Hidden_1" sheetId="2" r:id="rId3"/>
+    <sheet name="Hidden_2" sheetId="3" r:id="rId4"/>
+    <sheet name="Hidden_3" sheetId="4" r:id="rId5"/>
+    <sheet name="Hidden_4" sheetId="5" r:id="rId6"/>
+    <sheet name="Hidden_5" sheetId="6" r:id="rId7"/>
+    <sheet name="Hidden_6" sheetId="7" r:id="rId8"/>
+    <sheet name="Hidden_7" sheetId="8" r:id="rId9"/>
+    <sheet name="Tabla_492578" sheetId="9" r:id="rId10"/>
+    <sheet name="Hidden_1_Tabla_492578" sheetId="10" r:id="rId11"/>
+    <sheet name="Tabla_492580" sheetId="11" r:id="rId12"/>
+    <sheet name="Hidden_1_Tabla_492580" sheetId="12" r:id="rId13"/>
+    <sheet name="Tabla_492622" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="Hidden_1_Tabla_4925783">Hidden_1_Tabla_492578!$A$1:$A$3</definedName>
@@ -26,26 +34,17 @@
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
     <definedName name="Hidden_24">Hidden_2!$A$1:$A$5</definedName>
     <definedName name="Hidden_37">Hidden_3!$A$1:$A$2</definedName>
-    <definedName name="Hidden_412">Hidden_4!$A$1:$A$2</definedName>
-    <definedName name="Hidden_540">Hidden_5!$A$1:$A$2</definedName>
-    <definedName name="Hidden_642">Hidden_6!$A$1:$A$2</definedName>
+    <definedName name="Hidden_48">Hidden_4!$A$1:$A$2</definedName>
+    <definedName name="Hidden_513">Hidden_5!$A$1:$A$2</definedName>
+    <definedName name="Hidden_643">Hidden_6!$A$1:$A$2</definedName>
+    <definedName name="Hidden_745">Hidden_7!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
   <si>
     <t>52260</t>
   </si>
@@ -119,6 +118,9 @@
     <t>561997</t>
   </si>
   <si>
+    <t>570809</t>
+  </si>
+  <si>
     <t>492606</t>
   </si>
   <si>
@@ -152,6 +154,12 @@
     <t>492577</t>
   </si>
   <si>
+    <t>570810</t>
+  </si>
+  <si>
+    <t>570811</t>
+  </si>
+  <si>
     <t>492579</t>
   </si>
   <si>
@@ -273,6 +281,9 @@
   </si>
   <si>
     <t>Denominación del subprograma, vertiente o modalidad a la que pertenece el beneficiario, en su caso</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; El programa o subprograma a cargo del sujeto obligado está relacionado con temáticas de violencia de género y/o igualdad de género (catálogo)</t>
   </si>
   <si>
     <t>El programa es desarrollado por más de un área (catálogo)</t>
@@ -309,6 +320,12 @@
     <t>Población beneficiada estimada (número de personas)</t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de hombres</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de mujeres</t>
+  </si>
+  <si>
     <t>Nota metodológica de cálculo</t>
   </si>
   <si>
@@ -333,10 +350,10 @@
     <t>Hipervínculo calendario presupuestal</t>
   </si>
   <si>
-    <t>Criterios de elegibilidad</t>
-  </si>
-  <si>
-    <t>Requisitos y procedimientos de acceso</t>
+    <t>Criterios de elegibilidad previstos (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>Requisitos y procedimientos de acceso (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Monto, apoyo o beneficio mínimo que recibirá(n)</t>
@@ -345,13 +362,13 @@
     <t>Monto, apoyo o beneficio máximo que recibirá(n)</t>
   </si>
   <si>
-    <t>Procedimientos de queja o inconformidad ciudadana</t>
-  </si>
-  <si>
-    <t>Mecanismos de exigibilidad</t>
-  </si>
-  <si>
-    <t>Mecanismos de cancelación del apoyo, en su caso</t>
+    <t>Procedimientos de queja o inconformidad ciudadana (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>Mecanismos de exigibilidad (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>Mecanismos de cancelación del apoyo, en su caso (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Periodo evaluado</t>
@@ -373,7 +390,7 @@
 Tabla_492580</t>
   </si>
   <si>
-    <t>Formas de participación social</t>
+    <t>Formas de participación social (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Articulación otros programas sociales (catálogo)</t>
@@ -385,7 +402,7 @@
     <t>Está sujetos a reglas de operación (catálogo)</t>
   </si>
   <si>
-    <t>Hipervínculo Reglas de operación</t>
+    <t>Hipervínculo a las Reglas de Operación (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Informes periódicos sobre la ejecución del programa y sus evaluaciones 
@@ -455,10 +472,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Objetivo(s) general(es)</t>
-  </si>
-  <si>
-    <t>Objetivo(s) específico(s)</t>
+    <t>Objetivo(s) general(es) (Redactados con perspectiva de género)</t>
+  </si>
+  <si>
+    <t>Objetivo(s) específico(s) (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Alcances (catálogo)</t>
@@ -554,13 +571,13 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
+    <t xml:space="preserve"> Área de Becas (UPP)</t>
+  </si>
+  <si>
     <t>Becas Institucionales</t>
   </si>
   <si>
-    <t xml:space="preserve">Becas al Mérito Deportivo y cultural </t>
-  </si>
-  <si>
-    <t>Mtra. Nelly Abigain Pacheco Rodríguez</t>
+    <t>Mtra. Nelly A. Pacheco Rodríguez</t>
   </si>
   <si>
     <t>Área de Becas</t>
@@ -569,64 +586,7 @@
     <t>Reglas de Operación para el Programa de Becas Institucionales de la Universidad Politécnica de Pachuca, para el ejercicio Fiscal 2023</t>
   </si>
   <si>
-    <t>Las quejas, dudas, aclaraciones, comentarios y denuncias de los estudiantes beneficiarios en general se atenderán de acuerdo a las disposiciones establecidas para ello, y se podrán recibir vía escrita, telefónica, por internet o directamente en las oficinas de la Dirección de Planeación de la Universidad Politécnica de Pachuca al teléfono 771 547 7510  ext.2228, y correo electrónico: dirplaneacion@upp.edu.mx.</t>
-  </si>
-  <si>
-    <t>Cumplir con cada uno de los procesos que marque las convocatorias o instrumentos jurídicos aplicables en tiempo y forma; Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becas de Representación </t>
-  </si>
-  <si>
-    <t>Con el fin de apoyar a los estudiantes para continuar con sus estudios</t>
-  </si>
-  <si>
-    <t>Con el fin de apoyar a los estudiantes que representan a la UPP en eventos instituciones</t>
-  </si>
-  <si>
-    <t>Beneficio a los estudiantes inscritos que representen a la institución en el ámbito competitivo cultural, deportivo y/o académico con el otorgamiento del pago de los gastos que genere el acudir a algún evento representativo.</t>
-  </si>
-  <si>
-    <t>Alumnos Becados</t>
-  </si>
-  <si>
-    <t>Porcentaje de alumnos becados</t>
-  </si>
-  <si>
-    <t>alumnos becados/matrícula *100</t>
-  </si>
-  <si>
-    <t>alumnos</t>
-  </si>
-  <si>
-    <t>semestral</t>
-  </si>
-  <si>
-    <t>Carta Descriptiva del Programa Operativo Anual</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/mecasup/mc/guia/2021-guia_mecasup.pdf</t>
-  </si>
-  <si>
     <t>https://periodico.hidalgo.gob.mx/?tribe_events=Periodico-Oficial-Alcance-10-del-28-de-febrero-de-2023</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2022-presupuesto-anual-de-egresos-resumen.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Nacionalidad mexicana o acreditar su residencia legal en el país;
-b) No haber sido beneficiado con la Beca de Representación Institucional;
-c) Presentar constancia de no tener ningún tipo de adeudo con la Universidad;
-d) Tener como promedio mínimo de 8.0 y ser una o un estudiante regular; y
-e) Presentar constancia de haber obtenido reconocimiento estatal, regional, nacional o internacional, en los ámbitos académicos, culturales, deportivos o de participación comunitaria; firmado por el responsable o
-asesor de la actividad, donde se haga constar: 
-1.	Asistencia mínima del 80% a los entrenamientos, pláticas o reuniones de planeación y organización de las actividades; 
-2.	Asistencia del 100% a los juegos, presentaciones o actividades de participación comunitaria que se hayan programado; 
-3.	Haber mantenido una conducta intachable como miembro de los equipos representativos de la Universidad, dentro y fuera de la institución; y 
-4.	Haber usado adecuadamente el quipo y/o material institucional que se le haya asignado en calidad de préstamo para el desarrollo de las actividades académicas, deportivas, artístico-culturales o de participación comunitaria. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La asignación de la Beca se otorga según la propuesta de estudiantes de la Secretaría Académica y/o Dirección de Vinculación por su destacada participación en los ámbitos académicos, culturales, deportivos o de participación comunitaria. </t>
   </si>
   <si>
     <t>a)Nacionalidad mexicana o acreditar su residencia legal en el país;
@@ -636,29 +596,95 @@
 d) Será determinada en función de la disponibilidad presupuestal del proyecto en la Universidad y con estricto cumplimiento de los requisitos fiscales y administrativos aplicables.</t>
   </si>
   <si>
-    <t>La asignación de la Beca se otorga según la selección de estudiantes de la Secretaría Académica.</t>
-  </si>
-  <si>
-    <t>Beneficio a estudiantes destacados en el ámbito culturay y deportivo</t>
+    <t>La asignación de la Beca se otorga según la propuesta de estudiantes de la Secretaría Académica y/o Dirección de Vinculación por su destacada participación en los ámbitos académicos, culturales, deportivos o de participación comunitaria. </t>
+  </si>
+  <si>
+    <t>La asignación de la Beca se otorga de acuerdo a las solicitudes con expediente de Beca Alimenticia recibidas por las y los estudiantes de UPP.</t>
+  </si>
+  <si>
+    <t>a) Solicitud de Beca
+b) Constancia de No Adeudo 
+c)Encuesta socioeconómica 
+d)Historial Académico
+e)Copia de recibo de pago de reinscripción o inscripción</t>
+  </si>
+  <si>
+    <t>Las quejas, dudas, aclaraciones, comentarios y denuncias de las y los estudiantes beneficiarios en general se atenderán de acuerdo a las disposiciones establecidas para ello, y se podrán recibir vía escrita, telefónica, por internet o directamente en las oficinas de la Dirección de Planeación de la Universidad Politécnica de Pachuca al teléfono 771 547 7510  ext.2228, y correo electrónico: dirplaneacion@upp.edu.mx</t>
   </si>
   <si>
     <t>Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
   </si>
   <si>
-    <t>De acuerdo a la naturaleza del programa no se requiere la información del Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Periodo evaluado, Mecanismos de evaluación, Instancias Evaluadoras, Hipervínculo a resultados de informe de evaluación, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado,Hipervínculo al padrón de beneficiarios o participantes,  Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, el Hipervínculo a los informes periódicos sobre la ejecución del programa, Hipervínculo al resultado de las evaluaciones realizadas a dichos informes y la Fecha de publicación  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programa, lo que no impide la ejecución de los programas sociales.</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/15/2023_feb_28%20REGLAS%20DE%20OPERACI%C3%93N.pdf</t>
-  </si>
-  <si>
-    <t>Área de Becas (UPP)</t>
+    <t xml:space="preserve">I. Presentar documentación apócrifa durante el proceso de selección;
+II. Cuando el beneficiario presente “Carta Renuncia” a la beca;
+III. Fallecimiento del beneficiario;
+IV. Que se detecte que el beneficiario cuente con otra Beca Institucional; y
+V. Cuando el beneficiario cause baja escolar.
+</t>
+  </si>
+  <si>
+    <t>Beneficio de una comida al día a las y los estudiantes que cumplan con los requisitos de la convocatoria de Beca Alimenticia.</t>
+  </si>
+  <si>
+    <t>Con el fin de beneficiar con alimentos a las y los estudiantes a lo largo de su jornada escolar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alumnos Becados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porcentaje de alumnos becados</t>
+  </si>
+  <si>
+    <t>semestral</t>
+  </si>
+  <si>
+    <t>Carta Descriptiva del Programa Operativo Anual</t>
+  </si>
+  <si>
+    <t>alumnos y alumnas</t>
+  </si>
+  <si>
+    <t>alumnos o alumnas becados/matrícula *100</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2023/2023-presupuesto-anual-de-egresos.pdf</t>
+  </si>
+  <si>
+    <t>Becas Alimenticias</t>
+  </si>
+  <si>
+    <t>Becas de Representación Institucional</t>
+  </si>
+  <si>
+    <t>De acuerdo a la naturaleza del programa no se requiere la información  del  Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Periodo evaluado, Mecanismos de evaluación, Instancias Evaluadoras, Hipervínculo a resultados de informe de evaluación, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado,Hipervínculo al padrón de beneficiarios o participantes,  Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, el Hipervínculo a los informes periódicos sobre la ejecución del programa, Hipervínculo al resultado de las evaluaciones realizadas a dichos informes y la Fecha de publicación  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programa, lo que no impide la ejecución de los programas sociales.</t>
+  </si>
+  <si>
+    <t>Beneficio a las y los estudiantes inscritos que representen a la institución en el ámbito competitivo cultural, deportivo y/o académico con el otorgamiento del pago de los gastos que genere el acudir a algún evento representativo.</t>
+  </si>
+  <si>
+    <t>Beneficio a las y los estudiantes inscritos con un monto de apoyo complementario para sus gastos escolares</t>
+  </si>
+  <si>
+    <t>Con el fin de apoyar a las y los estudiantes que representan a la UPP en eventos instituciones.</t>
+  </si>
+  <si>
+    <t>Con el fin de apoyar a las y los estudiantes de escasos recursos</t>
+  </si>
+  <si>
+    <t>Becas de Equidad Social</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_15_a/2023_feb_28%20REGLAS%20DE%20OPERACI%C3%93N.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acuerdo a la naturaleza del programa no se requiere la información  del  Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Periodo evaluado, Mecanismos de evaluación, Instancias Evaluadoras, Hipervínculo a resultados de informe de evaluación, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado,Hipervínculo al padrón de beneficiarios o participantes,  Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, lo que no impide la ejecución de los programas sociales. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -680,21 +706,29 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -718,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -741,34 +775,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -776,61 +789,48 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -888,7 +888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,9 +921,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -956,6 +973,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,108 +1165,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="AU2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="63.140625" customWidth="1"/>
-    <col min="27" max="27" width="91.42578125" customWidth="1"/>
-    <col min="28" max="28" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="66.28515625" customWidth="1"/>
-    <col min="33" max="33" width="43" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="44" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="46" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="75" customWidth="1"/>
-    <col min="45" max="45" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="114" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="89.42578125" customWidth="1"/>
+    <col min="8" max="8" width="166.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="79" customWidth="1"/>
+    <col min="30" max="30" width="108.42578125" customWidth="1"/>
+    <col min="31" max="31" width="68" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="88.42578125" customWidth="1"/>
+    <col min="36" max="36" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="44" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="46" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="156.28515625" customWidth="1"/>
+    <col min="48" max="48" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="114" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:51" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:54" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -1267,37 +1304,37 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
-      </c>
-      <c r="N4" t="s">
-        <v>8</v>
       </c>
       <c r="O4" t="s">
         <v>8</v>
       </c>
       <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>12</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>13</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" t="s">
         <v>10</v>
-      </c>
-      <c r="T4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" t="s">
-        <v>14</v>
       </c>
       <c r="W4" t="s">
         <v>14</v>
@@ -1306,19 +1343,19 @@
         <v>14</v>
       </c>
       <c r="Y4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>11</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>10</v>
       </c>
       <c r="AD4" t="s">
         <v>10</v>
@@ -1333,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="s">
         <v>10</v>
@@ -1342,52 +1379,61 @@
         <v>10</v>
       </c>
       <c r="AK4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AL4" t="s">
         <v>10</v>
       </c>
       <c r="AM4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP4" t="s">
         <v>12</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AR4" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AS4" t="s">
         <v>10</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AT4" t="s">
         <v>9</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>11</v>
       </c>
       <c r="AU4" t="s">
         <v>11</v>
       </c>
       <c r="AV4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY4" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AZ4" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BA4" t="s">
         <v>15</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BB4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1541,478 +1587,655 @@
       <c r="AY5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="AZ5" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="18"/>
-    </row>
-    <row r="7" spans="1:51" ht="39" x14ac:dyDescent="0.25">
+      <c r="BA5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+    </row>
+    <row r="7" spans="1:54" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" s="8" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+        <v>122</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="7">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="B8" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="4">
+        <v>44985</v>
+      </c>
+      <c r="P8" s="4">
+        <v>45291</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>35</v>
+      </c>
+      <c r="T8" s="3">
+        <v>14</v>
+      </c>
+      <c r="U8" s="3">
+        <v>21</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3">
+        <v>101500</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>101500</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>2030</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>2030</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU8" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="BB8" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N8" s="7">
-        <v>45008</v>
-      </c>
-      <c r="O8" s="7">
-        <v>45026</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="5">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="W8" s="5">
+      <c r="E9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="4">
+        <v>44985</v>
+      </c>
+      <c r="P9" s="4">
+        <v>45291</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="3">
+        <v>2</v>
+      </c>
+      <c r="S9" s="3">
+        <v>19</v>
+      </c>
+      <c r="T9" s="3">
+        <v>17</v>
+      </c>
+      <c r="U9" s="3">
+        <v>2</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Y9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Z9" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR8" s="15" t="s">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AS8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW8" s="7">
-        <v>45026</v>
-      </c>
-      <c r="AX8" s="7">
-        <v>45026</v>
-      </c>
-      <c r="AY8" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" s="6" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="AD9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU9" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="BA9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="BB9" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2023</v>
       </c>
-      <c r="B9" s="7">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="B10" s="4">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L9" s="14" t="s">
+      <c r="G10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="4">
+        <v>44985</v>
+      </c>
+      <c r="P10" s="4">
+        <v>45291</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="3">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3">
+        <v>29</v>
+      </c>
+      <c r="T10" s="3">
+        <v>11</v>
+      </c>
+      <c r="U10" s="3">
+        <v>18</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="3">
+        <v>58000</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>58000</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="3">
-        <v>45014</v>
-      </c>
-      <c r="O9" s="7">
-        <v>45026</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4">
-        <v>2</v>
-      </c>
-      <c r="R9" s="4">
-        <v>18</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
-        <v>2540</v>
-      </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4">
-        <v>2540</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>116.6</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>116.6</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU10" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AG9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR9" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="AS9" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>45026</v>
-      </c>
-      <c r="AX9" s="7">
-        <v>45026</v>
-      </c>
-      <c r="AY9" s="16" t="s">
-        <v>194</v>
+      <c r="AZ10" s="4">
+        <v>45117</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>45117</v>
+      </c>
+      <c r="BB10" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:AY6"/>
+    <mergeCell ref="A6:BB6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2020,61 +2243,62 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D200">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E200">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H200">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M8:M200">
-      <formula1>Hidden_412</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>Hidden_48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO8:AO200">
-      <formula1>Hidden_540</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N201" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>Hidden_513</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ8:AQ200">
-      <formula1>Hidden_642</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AR8:AR201" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>Hidden_643</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AT8:AT201" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>Hidden_745</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L8" r:id="rId1"/>
-    <hyperlink ref="L9" r:id="rId2"/>
-    <hyperlink ref="Z8" r:id="rId3"/>
-    <hyperlink ref="Z9" r:id="rId4"/>
-    <hyperlink ref="AR8" r:id="rId5"/>
-    <hyperlink ref="AR9" r:id="rId6"/>
+    <hyperlink ref="M8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AC8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AC9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AC10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AU8" r:id="rId7" xr:uid="{FA8C3365-C43C-4714-BB9A-4C290E6CFF97}"/>
+    <hyperlink ref="AU9:AU10" r:id="rId8" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_15_a/2023_feb_28%20REGLAS%20DE%20OPERACI%C3%93N.pdf" xr:uid="{52E9D849-8D04-4CD3-A9BF-7D5B0391484F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -2082,141 +2306,98 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="10">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="E4" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="10">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>184</v>
+      <c r="B5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="5">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201">
-      <formula1>Hidden_1_Tabla_4925805</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>Hidden_1_Tabla_4925783</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2224,116 +2405,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44089</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2343,12 +2416,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2356,39 +2434,233 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="101.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="12">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="12">
+        <v>3.8E-3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="12">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+      <formula1>Hidden_1_Tabla_4925805</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2396,8 +2668,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBA45F5-FEA2-4B61-9C4E-F6C43DE9951B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2406,12 +2748,50 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2420,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2429,12 +2809,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2443,164 +2823,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="4">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201">
-      <formula1>Hidden_1_Tabla_4925783</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2608,17 +2832,81 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
